--- a/data/group-d-1.xlsx
+++ b/data/group-d-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nirmal/Documents/ML_DS/ml_dsc_cell/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nirmal/Documents/data_science/microDSC_error_prediction_ANN/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38904597-A2BE-0845-AEB2-B1DF106C3CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E652FB0-8C93-4345-9CCB-EBF9306A4E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -84,7 +77,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -372,7 +365,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -382,8 +375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="94" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K51"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="94" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -416,11 +409,11 @@
       <c r="I1">
         <v>1.274071</v>
       </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
+      <c r="J1">
+        <v>0.3</v>
+      </c>
+      <c r="K1">
+        <v>0.3</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -452,7 +445,7 @@
         <v>1.2755970000000001</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K2">
         <v>0.3</v>
@@ -487,7 +480,7 @@
         <v>1.276511</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K3">
         <v>0.3</v>
@@ -522,7 +515,7 @@
         <v>1.2781709999999999</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K4">
         <v>0.3</v>
@@ -557,7 +550,7 @@
         <v>1.279463</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K5">
         <v>0.3</v>
@@ -592,7 +585,7 @@
         <v>1.2811760000000001</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K6">
         <v>0.3</v>
@@ -627,7 +620,7 @@
         <v>1.282208</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K7">
         <v>0.3</v>
@@ -662,7 +655,7 @@
         <v>1.283115</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K8">
         <v>0.3</v>
@@ -697,7 +690,7 @@
         <v>1.284608</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K9">
         <v>0.3</v>
@@ -732,7 +725,7 @@
         <v>1.2861659999999999</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K10">
         <v>0.3</v>
@@ -767,7 +760,7 @@
         <v>1.287147</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K11">
         <v>0.3</v>
@@ -802,7 +795,7 @@
         <v>1.2882469999999999</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K12">
         <v>0.3</v>
@@ -837,7 +830,7 @@
         <v>1.290238</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K13">
         <v>0.3</v>
@@ -872,7 +865,7 @@
         <v>1.291085</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K14">
         <v>0.3</v>
@@ -907,7 +900,7 @@
         <v>1.292527</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K15">
         <v>0.3</v>
@@ -942,7 +935,7 @@
         <v>1.29352</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K16">
         <v>0.3</v>
@@ -977,7 +970,7 @@
         <v>1.295452</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K17">
         <v>0.3</v>
@@ -1012,7 +1005,7 @@
         <v>1.2961320000000001</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K18">
         <v>0.3</v>
@@ -1047,7 +1040,7 @@
         <v>1.2977399999999999</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K19">
         <v>0.3</v>
@@ -1082,7 +1075,7 @@
         <v>1.2995350000000001</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K20">
         <v>0.3</v>
@@ -1117,7 +1110,7 @@
         <v>1.299946</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K21">
         <v>0.3</v>
@@ -1152,7 +1145,7 @@
         <v>1.3009310000000001</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K22">
         <v>0.3</v>
@@ -1187,7 +1180,7 @@
         <v>1.302305</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K23">
         <v>0.3</v>
@@ -1222,7 +1215,7 @@
         <v>1.304192</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K24">
         <v>0.3</v>
@@ -1257,7 +1250,7 @@
         <v>1.3049269999999999</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K25">
         <v>0.3</v>
@@ -1292,7 +1285,7 @@
         <v>1.306001</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K26">
         <v>0.3</v>
@@ -1327,7 +1320,7 @@
         <v>1.3078559999999999</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K27">
         <v>0.3</v>
@@ -1362,7 +1355,7 @@
         <v>1.3090090000000001</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K28">
         <v>0.3</v>
@@ -1397,7 +1390,7 @@
         <v>1.3102480000000001</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K29">
         <v>0.3</v>
@@ -1432,7 +1425,7 @@
         <v>1.3113189999999999</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K30">
         <v>0.3</v>
@@ -1467,7 +1460,7 @@
         <v>1.312686</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K31">
         <v>0.3</v>
@@ -1502,7 +1495,7 @@
         <v>1.314114</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K32">
         <v>0.3</v>
@@ -1537,7 +1530,7 @@
         <v>1.3149770000000001</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K33">
         <v>0.3</v>
@@ -1572,7 +1565,7 @@
         <v>1.3172790000000001</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K34">
         <v>0.3</v>
@@ -1607,7 +1600,7 @@
         <v>1.3182879999999999</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K35">
         <v>0.3</v>
@@ -1642,7 +1635,7 @@
         <v>1.3186960000000001</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K36">
         <v>0.3</v>
@@ -1677,7 +1670,7 @@
         <v>1.320845</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K37">
         <v>0.3</v>
@@ -1712,7 +1705,7 @@
         <v>1.321726</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K38">
         <v>0.3</v>
@@ -1747,7 +1740,7 @@
         <v>1.32283</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K39">
         <v>0.3</v>
@@ -1782,7 +1775,7 @@
         <v>1.323499</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K40">
         <v>0.3</v>
@@ -1817,7 +1810,7 @@
         <v>1.32491</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K41">
         <v>0.3</v>
@@ -1852,7 +1845,7 @@
         <v>1.3252029999999999</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K42">
         <v>0.3</v>
@@ -1887,7 +1880,7 @@
         <v>1.326997</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K43">
         <v>0.3</v>
@@ -1922,7 +1915,7 @@
         <v>1.3284180000000001</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K44">
         <v>0.3</v>
@@ -1957,7 +1950,7 @@
         <v>1.3292820000000001</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K45">
         <v>0.3</v>
@@ -1992,7 +1985,7 @@
         <v>1.3303259999999999</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K46">
         <v>0.3</v>
@@ -2027,7 +2020,7 @@
         <v>1.330578</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K47">
         <v>0.3</v>
@@ -2062,7 +2055,7 @@
         <v>1.3322069999999999</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K48">
         <v>0.3</v>
@@ -2097,7 +2090,7 @@
         <v>1.3329629999999999</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K49">
         <v>0.3</v>
@@ -2132,7 +2125,7 @@
         <v>1.3339369999999999</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K50">
         <v>0.3</v>
@@ -2167,7 +2160,7 @@
         <v>1.33423</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K51">
         <v>0.3</v>
